--- a/实施周数据-张磊组/11月/47周/实施周数据-张磊组-别伟超.xlsx
+++ b/实施周数据-张磊组/11月/47周/实施周数据-张磊组-别伟超.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532">
   <si>
     <t>上海实施数据周报</t>
   </si>
@@ -1634,6 +1634,9 @@
   </si>
   <si>
     <t>捞王锅物料理(杭州龙湖店)上线</t>
+  </si>
+  <si>
+    <t>捞王锅物料理(苏州中心店)上线</t>
   </si>
 </sst>
 </file>
@@ -1725,21 +1728,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1760,16 +1750,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1783,14 +1772,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -1798,16 +1779,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1822,14 +1796,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1858,6 +1825,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -1866,14 +1849,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1881,9 +1864,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1944,31 +1947,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1986,7 +1971,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2010,13 +2067,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2028,49 +2091,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2082,31 +2109,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2446,17 +2449,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2471,16 +2468,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2502,6 +2499,45 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2510,49 +2546,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2561,149 +2564,149 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2846,9 +2849,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="10" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3358,440 +3358,440 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:17">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
     </row>
     <row r="2" ht="14.25" spans="1:17">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="59" t="s">
+      <c r="F2" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="60" t="s">
+      <c r="G2" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="61" t="s">
+      <c r="H2" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="85" t="s">
+      <c r="I2" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="86" t="s">
+      <c r="J2" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="87" t="s">
+      <c r="K2" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="88" t="s">
+      <c r="L2" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="89" t="s">
+      <c r="M2" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="90" t="s">
+      <c r="N2" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="90"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="55"/>
-      <c r="B3" s="62" t="s">
+      <c r="A3" s="54"/>
+      <c r="B3" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="64"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65">
+      <c r="D3" s="63"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64">
         <f t="shared" ref="F3:F11" si="0">D3-E3</f>
         <v>0</v>
       </c>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66">
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65">
         <f t="shared" ref="I3:I11" si="1">G3-H3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="92"/>
-      <c r="K3" s="93" t="e">
+      <c r="J3" s="91"/>
+      <c r="K3" s="92" t="e">
         <f t="shared" ref="K3:K11" si="2">J3/M3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L3" s="94">
+      <c r="L3" s="93">
         <f t="shared" ref="L3:L10" si="3">D3+H3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="95">
+      <c r="M3" s="94">
         <f>E3+H3</f>
         <v>0</v>
       </c>
-      <c r="N3" s="96" t="e">
+      <c r="N3" s="95" t="e">
         <f t="shared" ref="N3:N11" si="4">M3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="91"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="67"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="69" t="s">
+      <c r="A4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="70"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71">
+      <c r="D4" s="69"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G4" s="72"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="72">
+      <c r="G4" s="71"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J4" s="97"/>
-      <c r="K4" s="93" t="e">
+      <c r="J4" s="96"/>
+      <c r="K4" s="92" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L4" s="94">
+      <c r="L4" s="93">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M4" s="95">
+      <c r="M4" s="94">
         <f t="shared" ref="M4:M10" si="5">E4+J4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="96" t="e">
+      <c r="N4" s="95" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O4" s="91"/>
-      <c r="P4" s="91"/>
-      <c r="Q4" s="91"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="90"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="67"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="69" t="s">
+      <c r="A5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="70"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71">
+      <c r="D5" s="69"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="72"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="72">
+      <c r="G5" s="71"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5" s="97"/>
-      <c r="K5" s="93" t="e">
+      <c r="J5" s="96"/>
+      <c r="K5" s="92" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L5" s="94">
+      <c r="L5" s="93">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M5" s="95">
+      <c r="M5" s="94">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N5" s="96" t="e">
+      <c r="N5" s="95" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O5" s="91"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="91"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="90"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="67"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="69" t="s">
+      <c r="A6" s="66"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="70"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71">
+      <c r="D6" s="69"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="72"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="72">
+      <c r="G6" s="71"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J6" s="97"/>
-      <c r="K6" s="93" t="e">
+      <c r="J6" s="96"/>
+      <c r="K6" s="92" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L6" s="94">
+      <c r="L6" s="93">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M6" s="95">
+      <c r="M6" s="94">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N6" s="96" t="e">
+      <c r="N6" s="95" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O6" s="91"/>
-      <c r="P6" s="91"/>
-      <c r="Q6" s="91"/>
+      <c r="O6" s="90"/>
+      <c r="P6" s="90"/>
+      <c r="Q6" s="90"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="67"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="69" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71">
+      <c r="A7" s="66"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="69"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="72"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="72">
+      <c r="G7" s="71"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J7" s="97"/>
-      <c r="K7" s="93" t="e">
+      <c r="J7" s="96"/>
+      <c r="K7" s="92" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7" s="94">
+      <c r="L7" s="93">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M7" s="95">
+      <c r="M7" s="94">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N7" s="96" t="e">
+      <c r="N7" s="95" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O7" s="91"/>
-      <c r="P7" s="91"/>
-      <c r="Q7" s="91"/>
+      <c r="O7" s="90"/>
+      <c r="P7" s="90"/>
+      <c r="Q7" s="90"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="67"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="69" t="s">
+      <c r="A8" s="66"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="70"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71">
+      <c r="D8" s="69"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="72"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="72">
+      <c r="G8" s="71"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J8" s="97"/>
-      <c r="K8" s="93" t="e">
+      <c r="J8" s="96"/>
+      <c r="K8" s="92" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L8" s="94">
+      <c r="L8" s="93">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="95">
+      <c r="M8" s="94">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N8" s="96" t="e">
+      <c r="N8" s="95" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O8" s="91"/>
-      <c r="P8" s="91"/>
-      <c r="Q8" s="91"/>
+      <c r="O8" s="90"/>
+      <c r="P8" s="90"/>
+      <c r="Q8" s="90"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="67"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="69" t="s">
+      <c r="A9" s="66"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="70"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71">
+      <c r="D9" s="69"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="72"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="72">
+      <c r="G9" s="71"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9" s="97"/>
-      <c r="K9" s="93" t="e">
+      <c r="J9" s="96"/>
+      <c r="K9" s="92" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="94">
+      <c r="L9" s="93">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M9" s="95">
+      <c r="M9" s="94">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N9" s="96" t="e">
+      <c r="N9" s="95" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O9" s="91"/>
-      <c r="P9" s="91"/>
-      <c r="Q9" s="91"/>
+      <c r="O9" s="90"/>
+      <c r="P9" s="90"/>
+      <c r="Q9" s="90"/>
     </row>
     <row r="10" ht="14.25" spans="1:17">
-      <c r="A10" s="67"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="73" t="s">
+      <c r="A10" s="66"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="74"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="76">
+      <c r="D10" s="73"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="77"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="77">
+      <c r="G10" s="76"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="76">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="98"/>
-      <c r="K10" s="99" t="e">
+      <c r="J10" s="97"/>
+      <c r="K10" s="98" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="100">
+      <c r="L10" s="99">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M10" s="101">
+      <c r="M10" s="100">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N10" s="102" t="e">
+      <c r="N10" s="101" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O10" s="91"/>
-      <c r="P10" s="91"/>
-      <c r="Q10" s="91"/>
+      <c r="O10" s="90"/>
+      <c r="P10" s="90"/>
+      <c r="Q10" s="90"/>
     </row>
     <row r="11" ht="14.25" spans="1:17">
-      <c r="A11" s="79"/>
-      <c r="B11" s="80"/>
-      <c r="C11" s="81" t="s">
+      <c r="A11" s="78"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="82">
+      <c r="D11" s="81">
         <f t="shared" ref="D11:H11" si="6">SUM(D3:D10)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="82">
+      <c r="E11" s="81">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F11" s="83">
+      <c r="F11" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="82">
+      <c r="G11" s="81">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H11" s="82">
+      <c r="H11" s="81">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I11" s="83">
+      <c r="I11" s="82">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="82">
+      <c r="J11" s="81">
         <f t="shared" ref="J11:M11" si="7">SUM(J3:J10)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="103" t="e">
+      <c r="K11" s="102" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L11" s="83">
+      <c r="L11" s="82">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M11" s="83">
+      <c r="M11" s="82">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N11" s="104" t="e">
+      <c r="N11" s="103" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O11" s="91"/>
-      <c r="P11" s="91"/>
-      <c r="Q11" s="91"/>
+      <c r="O11" s="90"/>
+      <c r="P11" s="90"/>
+      <c r="Q11" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3809,7 +3809,7 @@
   <sheetPr/>
   <dimension ref="A1:O602"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A180" sqref="A180:A199"/>
@@ -7810,7 +7810,7 @@
       <c r="M95" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N95" s="105" t="s">
+      <c r="N95" s="104" t="s">
         <v>269</v>
       </c>
       <c r="O95" s="12" t="s">
@@ -12358,7 +12358,7 @@
       <c r="O200" s="42"/>
     </row>
     <row r="201" spans="1:15">
-      <c r="A201" s="50" t="s">
+      <c r="A201" s="40" t="s">
         <v>492</v>
       </c>
       <c r="B201" s="32">
@@ -12405,7 +12405,7 @@
       </c>
     </row>
     <row r="202" spans="1:15">
-      <c r="A202" s="51"/>
+      <c r="A202" s="50"/>
       <c r="B202" s="32">
         <v>43059</v>
       </c>
@@ -12450,7 +12450,7 @@
       </c>
     </row>
     <row r="203" spans="1:15">
-      <c r="A203" s="51"/>
+      <c r="A203" s="50"/>
       <c r="B203" s="32">
         <v>43059</v>
       </c>
@@ -12495,7 +12495,7 @@
       </c>
     </row>
     <row r="204" spans="1:15">
-      <c r="A204" s="51"/>
+      <c r="A204" s="50"/>
       <c r="B204" s="32">
         <v>43059</v>
       </c>
@@ -12540,7 +12540,7 @@
       </c>
     </row>
     <row r="205" spans="1:15">
-      <c r="A205" s="51"/>
+      <c r="A205" s="50"/>
       <c r="B205" s="32">
         <v>43059</v>
       </c>
@@ -12585,7 +12585,7 @@
       </c>
     </row>
     <row r="206" spans="1:15">
-      <c r="A206" s="51"/>
+      <c r="A206" s="50"/>
       <c r="B206" s="32">
         <v>43059</v>
       </c>
@@ -12630,7 +12630,7 @@
       </c>
     </row>
     <row r="207" spans="1:15">
-      <c r="A207" s="51"/>
+      <c r="A207" s="50"/>
       <c r="B207" s="32">
         <v>43059</v>
       </c>
@@ -12675,7 +12675,7 @@
       </c>
     </row>
     <row r="208" spans="1:15">
-      <c r="A208" s="51"/>
+      <c r="A208" s="50"/>
       <c r="B208" s="32">
         <v>43059</v>
       </c>
@@ -12720,7 +12720,7 @@
       </c>
     </row>
     <row r="209" spans="1:15">
-      <c r="A209" s="51"/>
+      <c r="A209" s="50"/>
       <c r="B209" s="32">
         <v>43059</v>
       </c>
@@ -12765,7 +12765,7 @@
       </c>
     </row>
     <row r="210" spans="1:15">
-      <c r="A210" s="51"/>
+      <c r="A210" s="50"/>
       <c r="B210" s="32">
         <v>43059</v>
       </c>
@@ -12810,7 +12810,7 @@
       </c>
     </row>
     <row r="211" spans="1:15">
-      <c r="A211" s="51"/>
+      <c r="A211" s="50"/>
       <c r="B211" s="32">
         <v>43059</v>
       </c>
@@ -12855,7 +12855,7 @@
       </c>
     </row>
     <row r="212" spans="1:15">
-      <c r="A212" s="51"/>
+      <c r="A212" s="50"/>
       <c r="B212" s="32">
         <v>43059</v>
       </c>
@@ -12900,7 +12900,7 @@
       </c>
     </row>
     <row r="213" spans="1:15">
-      <c r="A213" s="51"/>
+      <c r="A213" s="50"/>
       <c r="B213" s="32">
         <v>43059</v>
       </c>
@@ -12945,7 +12945,7 @@
       </c>
     </row>
     <row r="214" spans="1:15">
-      <c r="A214" s="51"/>
+      <c r="A214" s="50"/>
       <c r="B214" s="32">
         <v>43059</v>
       </c>
@@ -12990,7 +12990,7 @@
       </c>
     </row>
     <row r="215" spans="1:15">
-      <c r="A215" s="52"/>
+      <c r="A215" s="51"/>
       <c r="B215" s="32">
         <v>43059</v>
       </c>
@@ -14476,8 +14476,8 @@
   <sheetPr/>
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -14537,14 +14537,26 @@
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="3">
+        <v>43050</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="3">
+        <v>43064</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2"/>
